--- a/codingtest_java/이론/01.빅오 표기법/빅오 표기법 및 입력값 N별 범위.xlsx
+++ b/codingtest_java/이론/01.빅오 표기법/빅오 표기법 및 입력값 N별 범위.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\codingtest_java\이론\01.빅오 표기법\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0F50E7-3716-45B6-BA20-1821D1DA0A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F038E991-962F-4C6C-917E-90A57FE40108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D691EE35-5013-487A-A768-DBDC07DB715C}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{D691EE35-5013-487A-A768-DBDC07DB715C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>시간 복잡도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,8 +135,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>* N의 가용 범위는 초당 1,000~3,000만 정도로 고려하여 가용할 수 있는 범위를 정한 것
+    <t>* 아래 표의 N의 가용 범위는 초당 1,000~3,000만 정도로 고려하여 가용할 수 있는 범위를 정한 것
 * 시간 복잡도는 단순히 입력값에 대한 알고리즘의 시간을 가늠하는 정도로만 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 시간복잡도란 알고리즘이 입력 크기에 따라 연산하는데 걸리는 시간을 나타내는 개념</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -255,10 +259,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,7 +601,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -609,15 +613,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -713,6 +717,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
       <c r="C13" s="7"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">

--- a/codingtest_java/이론/01.빅오 표기법/빅오 표기법 및 입력값 N별 범위.xlsx
+++ b/codingtest_java/이론/01.빅오 표기법/빅오 표기법 및 입력값 N별 범위.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\codingtest_java\이론\01.빅오 표기법\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F038E991-962F-4C6C-917E-90A57FE40108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C840A38-C925-4FA9-AFF9-BD1A9D30717E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{D691EE35-5013-487A-A768-DBDC07DB715C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D691EE35-5013-487A-A768-DBDC07DB715C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>시간 복잡도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,11 +127,6 @@
   </si>
   <si>
     <t>정렬, 정렬 후 반복 (정렬 나오면 이 표기법)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 입력값 N에 대하여 시간 복잡도를 구하면 수행을 끝내기 위해 필요한 총 연산횟수가 나온다.
-2. cpu는 1초당 10^8(1억번) 연산 할 수 있으므로 (1)의 총 연산 횟수 / 10^8 하면 연산하는데 걸리는 시간을 구할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -140,7 +135,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>* 시간복잡도란 알고리즘이 입력 크기에 따라 연산하는데 걸리는 시간을 나타내는 개념</t>
+    <t>* 시간복잡도란?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 최악의 경우 빅오 표기법으로 시간 복잡도를 나타낸다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- 입력값 N의 크기에 따른 알고리즘의 연산횟수의 증가율을 나타낸 것으로, 시간복잡도를 측정한 결과는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>최선(가장 일찍 처리될 경우의 연산 횟수), 보통, 최악(가장 늦게 처리될 경우의 연산 횟수)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이 있다. (코딩 테스트에서는 최악의 경우로 계산하는 것이 일반적)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip. 보통 문제에 제한시간이 나오면 그 기준대로 빅오 표기법으로 시간복잡도를 계산하여 시간초과 여부를 판단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip. 문제에 제한시간 표기가 없으면 1초 기준으로 시간복잡도를 계산하여 시간초과 여부를 판단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* cpu는 1초당 10^8(1억번) 연산 할 수 있으므로 (입력값에 대한 연산 횟수) / (10^8) 계산하여 연산 횟수에 따라 걸리는 시간을 구할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex) 입력값 범위 2~10^5, 제한시간 3초</t>
+  </si>
+  <si>
+    <t>O(N)^2  (이중 중첩for문 사용 시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(10^5)^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(10^10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 연산량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(10^10) / 10^8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 100초 소요되므로 시간초과 발생, 이 알고리즘은 사용하면 안됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전하게 최대 입력값 N이 위 표의 가용범위 안에 들 때 해당 알고리즘 사용 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -233,7 +312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,6 +341,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5338E2-0A7F-45B5-A9A5-EFD2DE3B66B1}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -609,125 +697,199 @@
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="83.75" customWidth="1"/>
-    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="117.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B20" s="2">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="C11" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="6"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="7"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C30" s="7"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
